--- a/metrics/R2/Microalbuminuria.xlsx
+++ b/metrics/R2/Microalbuminuria.xlsx
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9969369454895531</v>
+        <v>0.9969661396677152</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9971027691056694</v>
+        <v>0.996946930279147</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9969232645868963</v>
+        <v>0.9971469744954022</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9976757649929157</v>
+        <v>0.9976825199215265</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9976809950530645</v>
+        <v>0.9976810172012281</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9976674524193644</v>
+        <v>0.997695021204274</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9877144209314126</v>
+        <v>0.9860838532599849</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9848364383891228</v>
+        <v>0.9874104151767233</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9882022518243821</v>
+        <v>0.987983614392475</v>
       </c>
     </row>
   </sheetData>
